--- a/data/sub-9999/retrieval4.xlsx
+++ b/data/sub-9999/retrieval4.xlsx
@@ -14,11 +14,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="90">
   <si>
     <t>retrieval4</t>
   </si>
   <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>correct</t>
+  </si>
+  <si>
     <t>SetC/181a.jpg</t>
   </si>
   <si>
@@ -269,6 +275,15 @@
   </si>
   <si>
     <t>SetD/072a.jpg</t>
+  </si>
+  <si>
+    <t>targ</t>
+  </si>
+  <si>
+    <t>lure</t>
+  </si>
+  <si>
+    <t>foil</t>
   </si>
 </sst>
 </file>
@@ -626,435 +641,945 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A85"/>
+  <dimension ref="A1:C85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
+        <v>53</v>
+      </c>
+      <c r="B52" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
+        <v>54</v>
+      </c>
+      <c r="B53" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
+        <v>55</v>
+      </c>
+      <c r="B54" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
+        <v>56</v>
+      </c>
+      <c r="B55" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
+        <v>57</v>
+      </c>
+      <c r="B56" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
+        <v>58</v>
+      </c>
+      <c r="B57" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
+        <v>59</v>
+      </c>
+      <c r="B58" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
+        <v>60</v>
+      </c>
+      <c r="B59" t="s">
+        <v>89</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
+        <v>61</v>
+      </c>
+      <c r="B60" t="s">
+        <v>89</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
+        <v>62</v>
+      </c>
+      <c r="B61" t="s">
+        <v>89</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
+        <v>63</v>
+      </c>
+      <c r="B62" t="s">
+        <v>89</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
+        <v>64</v>
+      </c>
+      <c r="B63" t="s">
+        <v>89</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
+        <v>65</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
+        <v>66</v>
+      </c>
+      <c r="B65" t="s">
+        <v>89</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
+        <v>67</v>
+      </c>
+      <c r="B66" t="s">
+        <v>89</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
+        <v>68</v>
+      </c>
+      <c r="B67" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
+        <v>69</v>
+      </c>
+      <c r="B68" t="s">
+        <v>89</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
+        <v>70</v>
+      </c>
+      <c r="B69" t="s">
+        <v>89</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
+        <v>71</v>
+      </c>
+      <c r="B70" t="s">
+        <v>89</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
+        <v>72</v>
+      </c>
+      <c r="B71" t="s">
+        <v>89</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
+        <v>73</v>
+      </c>
+      <c r="B72" t="s">
+        <v>89</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
+        <v>74</v>
+      </c>
+      <c r="B73" t="s">
+        <v>89</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
+        <v>75</v>
+      </c>
+      <c r="B74" t="s">
+        <v>89</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
+        <v>76</v>
+      </c>
+      <c r="B75" t="s">
+        <v>89</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
+        <v>77</v>
+      </c>
+      <c r="B76" t="s">
+        <v>89</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
+        <v>78</v>
+      </c>
+      <c r="B77" t="s">
+        <v>89</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
+        <v>79</v>
+      </c>
+      <c r="B78" t="s">
+        <v>89</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
+        <v>80</v>
+      </c>
+      <c r="B79" t="s">
+        <v>89</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
+        <v>81</v>
+      </c>
+      <c r="B80" t="s">
+        <v>89</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
+        <v>82</v>
+      </c>
+      <c r="B81" t="s">
+        <v>89</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
+        <v>83</v>
+      </c>
+      <c r="B82" t="s">
+        <v>89</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
+        <v>84</v>
+      </c>
+      <c r="B83" t="s">
+        <v>89</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
+        <v>85</v>
+      </c>
+      <c r="B84" t="s">
+        <v>89</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>86</v>
+      </c>
+      <c r="B85" t="s">
+        <v>89</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data/sub-9999/retrieval4.xlsx
+++ b/data/sub-9999/retrieval4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="102">
   <si>
     <t>retrieval4</t>
   </si>
@@ -275,6 +275,42 @@
   </si>
   <si>
     <t>SetD/072a.jpg</t>
+  </si>
+  <si>
+    <t>SetD/073a.jpg</t>
+  </si>
+  <si>
+    <t>SetD/074a.jpg</t>
+  </si>
+  <si>
+    <t>SetD/075a.jpg</t>
+  </si>
+  <si>
+    <t>SetD/076a.jpg</t>
+  </si>
+  <si>
+    <t>SetD/077a.jpg</t>
+  </si>
+  <si>
+    <t>SetD/078a.jpg</t>
+  </si>
+  <si>
+    <t>SetD/079a.jpg</t>
+  </si>
+  <si>
+    <t>SetD/080a.jpg</t>
+  </si>
+  <si>
+    <t>SetD/081a.jpg</t>
+  </si>
+  <si>
+    <t>SetD/082a.jpg</t>
+  </si>
+  <si>
+    <t>SetD/083a.jpg</t>
+  </si>
+  <si>
+    <t>SetD/084a.jpg</t>
   </si>
   <si>
     <t>targ</t>
@@ -641,7 +677,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -663,7 +699,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -674,7 +710,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -685,7 +721,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -696,7 +732,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -707,7 +743,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -718,7 +754,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -729,7 +765,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -740,7 +776,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -751,7 +787,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -762,7 +798,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -773,7 +809,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -784,7 +820,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -795,7 +831,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -806,7 +842,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -817,7 +853,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -828,7 +864,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -839,7 +875,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -850,7 +886,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -861,7 +897,7 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -872,7 +908,7 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -883,7 +919,7 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -894,7 +930,7 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -905,7 +941,7 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -916,7 +952,7 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -927,7 +963,7 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -938,7 +974,7 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -949,7 +985,7 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -960,7 +996,7 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -971,7 +1007,7 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -982,7 +1018,7 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C31">
         <v>2</v>
@@ -993,7 +1029,7 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -1004,7 +1040,7 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -1015,7 +1051,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -1026,7 +1062,7 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -1037,7 +1073,7 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -1048,7 +1084,7 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -1059,7 +1095,7 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -1070,7 +1106,7 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C39">
         <v>2</v>
@@ -1081,7 +1117,7 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C40">
         <v>2</v>
@@ -1092,7 +1128,7 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C41">
         <v>2</v>
@@ -1103,7 +1139,7 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C42">
         <v>2</v>
@@ -1114,7 +1150,7 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C43">
         <v>2</v>
@@ -1125,7 +1161,7 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C44">
         <v>2</v>
@@ -1136,7 +1172,7 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C45">
         <v>2</v>
@@ -1147,7 +1183,7 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -1158,7 +1194,7 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -1169,7 +1205,7 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -1180,7 +1216,7 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C49">
         <v>2</v>
@@ -1191,7 +1227,7 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -1202,7 +1238,7 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -1213,7 +1249,7 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -1224,7 +1260,7 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -1235,7 +1271,7 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -1246,7 +1282,7 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -1257,7 +1293,7 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -1268,7 +1304,7 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -1279,7 +1315,7 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -1290,7 +1326,7 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -1301,7 +1337,7 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -1312,7 +1348,7 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -1323,7 +1359,7 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -1334,7 +1370,7 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -1345,7 +1381,7 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -1356,7 +1392,7 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -1367,7 +1403,7 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -1378,7 +1414,7 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -1389,7 +1425,7 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -1400,7 +1436,7 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -1411,7 +1447,7 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -1422,7 +1458,7 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -1433,7 +1469,7 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -1444,7 +1480,7 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -1455,7 +1491,7 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -1466,7 +1502,7 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -1477,7 +1513,7 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C76">
         <v>3</v>
@@ -1488,7 +1524,7 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C77">
         <v>3</v>
@@ -1499,7 +1535,7 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C78">
         <v>3</v>
@@ -1510,7 +1546,7 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C79">
         <v>3</v>
@@ -1521,7 +1557,7 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C80">
         <v>3</v>
@@ -1532,7 +1568,7 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C81">
         <v>3</v>
@@ -1543,7 +1579,7 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C82">
         <v>3</v>
@@ -1554,7 +1590,7 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C83">
         <v>3</v>
@@ -1565,7 +1601,7 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C84">
         <v>3</v>
@@ -1576,9 +1612,141 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
+        <v>101</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86" t="s">
+        <v>101</v>
+      </c>
+      <c r="C86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" t="s">
+        <v>101</v>
+      </c>
+      <c r="C87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
         <v>89</v>
       </c>
-      <c r="C85">
+      <c r="B88" t="s">
+        <v>101</v>
+      </c>
+      <c r="C88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" t="s">
+        <v>101</v>
+      </c>
+      <c r="C89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" t="s">
+        <v>101</v>
+      </c>
+      <c r="C90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91" t="s">
+        <v>101</v>
+      </c>
+      <c r="C91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" t="s">
+        <v>101</v>
+      </c>
+      <c r="C92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93" t="s">
+        <v>101</v>
+      </c>
+      <c r="C93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" t="s">
+        <v>101</v>
+      </c>
+      <c r="C94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" t="s">
+        <v>101</v>
+      </c>
+      <c r="C95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" t="s">
+        <v>101</v>
+      </c>
+      <c r="C97">
         <v>3</v>
       </c>
     </row>

--- a/data/sub-9999/retrieval4.xlsx
+++ b/data/sub-9999/retrieval4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="105">
   <si>
     <t>retrieval4</t>
   </si>
@@ -320,6 +320,15 @@
   </si>
   <si>
     <t>foil</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
 </sst>
 </file>
@@ -701,8 +710,8 @@
       <c r="B2" t="s">
         <v>99</v>
       </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="C2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -712,8 +721,8 @@
       <c r="B3" t="s">
         <v>99</v>
       </c>
-      <c r="C3">
-        <v>1</v>
+      <c r="C3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -723,8 +732,8 @@
       <c r="B4" t="s">
         <v>99</v>
       </c>
-      <c r="C4">
-        <v>1</v>
+      <c r="C4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -734,8 +743,8 @@
       <c r="B5" t="s">
         <v>99</v>
       </c>
-      <c r="C5">
-        <v>1</v>
+      <c r="C5" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -745,8 +754,8 @@
       <c r="B6" t="s">
         <v>99</v>
       </c>
-      <c r="C6">
-        <v>1</v>
+      <c r="C6" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -756,8 +765,8 @@
       <c r="B7" t="s">
         <v>99</v>
       </c>
-      <c r="C7">
-        <v>1</v>
+      <c r="C7" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -767,8 +776,8 @@
       <c r="B8" t="s">
         <v>99</v>
       </c>
-      <c r="C8">
-        <v>1</v>
+      <c r="C8" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -778,8 +787,8 @@
       <c r="B9" t="s">
         <v>99</v>
       </c>
-      <c r="C9">
-        <v>1</v>
+      <c r="C9" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -789,8 +798,8 @@
       <c r="B10" t="s">
         <v>99</v>
       </c>
-      <c r="C10">
-        <v>1</v>
+      <c r="C10" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -800,8 +809,8 @@
       <c r="B11" t="s">
         <v>99</v>
       </c>
-      <c r="C11">
-        <v>1</v>
+      <c r="C11" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -811,8 +820,8 @@
       <c r="B12" t="s">
         <v>99</v>
       </c>
-      <c r="C12">
-        <v>1</v>
+      <c r="C12" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -822,8 +831,8 @@
       <c r="B13" t="s">
         <v>99</v>
       </c>
-      <c r="C13">
-        <v>1</v>
+      <c r="C13" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -833,8 +842,8 @@
       <c r="B14" t="s">
         <v>99</v>
       </c>
-      <c r="C14">
-        <v>1</v>
+      <c r="C14" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -844,8 +853,8 @@
       <c r="B15" t="s">
         <v>99</v>
       </c>
-      <c r="C15">
-        <v>1</v>
+      <c r="C15" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -855,8 +864,8 @@
       <c r="B16" t="s">
         <v>99</v>
       </c>
-      <c r="C16">
-        <v>1</v>
+      <c r="C16" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -866,8 +875,8 @@
       <c r="B17" t="s">
         <v>99</v>
       </c>
-      <c r="C17">
-        <v>1</v>
+      <c r="C17" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -877,8 +886,8 @@
       <c r="B18" t="s">
         <v>99</v>
       </c>
-      <c r="C18">
-        <v>1</v>
+      <c r="C18" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -888,8 +897,8 @@
       <c r="B19" t="s">
         <v>99</v>
       </c>
-      <c r="C19">
-        <v>1</v>
+      <c r="C19" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -899,8 +908,8 @@
       <c r="B20" t="s">
         <v>99</v>
       </c>
-      <c r="C20">
-        <v>1</v>
+      <c r="C20" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -910,8 +919,8 @@
       <c r="B21" t="s">
         <v>99</v>
       </c>
-      <c r="C21">
-        <v>1</v>
+      <c r="C21" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -921,8 +930,8 @@
       <c r="B22" t="s">
         <v>99</v>
       </c>
-      <c r="C22">
-        <v>1</v>
+      <c r="C22" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -932,8 +941,8 @@
       <c r="B23" t="s">
         <v>99</v>
       </c>
-      <c r="C23">
-        <v>1</v>
+      <c r="C23" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -943,8 +952,8 @@
       <c r="B24" t="s">
         <v>99</v>
       </c>
-      <c r="C24">
-        <v>1</v>
+      <c r="C24" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -954,8 +963,8 @@
       <c r="B25" t="s">
         <v>99</v>
       </c>
-      <c r="C25">
-        <v>1</v>
+      <c r="C25" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -965,8 +974,8 @@
       <c r="B26" t="s">
         <v>100</v>
       </c>
-      <c r="C26">
-        <v>2</v>
+      <c r="C26" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -976,8 +985,8 @@
       <c r="B27" t="s">
         <v>100</v>
       </c>
-      <c r="C27">
-        <v>2</v>
+      <c r="C27" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -987,8 +996,8 @@
       <c r="B28" t="s">
         <v>100</v>
       </c>
-      <c r="C28">
-        <v>2</v>
+      <c r="C28" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -998,8 +1007,8 @@
       <c r="B29" t="s">
         <v>100</v>
       </c>
-      <c r="C29">
-        <v>2</v>
+      <c r="C29" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1009,8 +1018,8 @@
       <c r="B30" t="s">
         <v>100</v>
       </c>
-      <c r="C30">
-        <v>2</v>
+      <c r="C30" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1020,8 +1029,8 @@
       <c r="B31" t="s">
         <v>100</v>
       </c>
-      <c r="C31">
-        <v>2</v>
+      <c r="C31" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1031,8 +1040,8 @@
       <c r="B32" t="s">
         <v>100</v>
       </c>
-      <c r="C32">
-        <v>2</v>
+      <c r="C32" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1042,8 +1051,8 @@
       <c r="B33" t="s">
         <v>100</v>
       </c>
-      <c r="C33">
-        <v>2</v>
+      <c r="C33" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1053,8 +1062,8 @@
       <c r="B34" t="s">
         <v>100</v>
       </c>
-      <c r="C34">
-        <v>2</v>
+      <c r="C34" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1064,8 +1073,8 @@
       <c r="B35" t="s">
         <v>100</v>
       </c>
-      <c r="C35">
-        <v>2</v>
+      <c r="C35" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1075,8 +1084,8 @@
       <c r="B36" t="s">
         <v>100</v>
       </c>
-      <c r="C36">
-        <v>2</v>
+      <c r="C36" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1086,8 +1095,8 @@
       <c r="B37" t="s">
         <v>100</v>
       </c>
-      <c r="C37">
-        <v>2</v>
+      <c r="C37" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1097,8 +1106,8 @@
       <c r="B38" t="s">
         <v>100</v>
       </c>
-      <c r="C38">
-        <v>2</v>
+      <c r="C38" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1108,8 +1117,8 @@
       <c r="B39" t="s">
         <v>100</v>
       </c>
-      <c r="C39">
-        <v>2</v>
+      <c r="C39" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1119,8 +1128,8 @@
       <c r="B40" t="s">
         <v>100</v>
       </c>
-      <c r="C40">
-        <v>2</v>
+      <c r="C40" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1130,8 +1139,8 @@
       <c r="B41" t="s">
         <v>100</v>
       </c>
-      <c r="C41">
-        <v>2</v>
+      <c r="C41" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1141,8 +1150,8 @@
       <c r="B42" t="s">
         <v>100</v>
       </c>
-      <c r="C42">
-        <v>2</v>
+      <c r="C42" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1152,8 +1161,8 @@
       <c r="B43" t="s">
         <v>100</v>
       </c>
-      <c r="C43">
-        <v>2</v>
+      <c r="C43" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1163,8 +1172,8 @@
       <c r="B44" t="s">
         <v>100</v>
       </c>
-      <c r="C44">
-        <v>2</v>
+      <c r="C44" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1174,8 +1183,8 @@
       <c r="B45" t="s">
         <v>100</v>
       </c>
-      <c r="C45">
-        <v>2</v>
+      <c r="C45" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1185,8 +1194,8 @@
       <c r="B46" t="s">
         <v>100</v>
       </c>
-      <c r="C46">
-        <v>2</v>
+      <c r="C46" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1196,8 +1205,8 @@
       <c r="B47" t="s">
         <v>100</v>
       </c>
-      <c r="C47">
-        <v>2</v>
+      <c r="C47" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1207,8 +1216,8 @@
       <c r="B48" t="s">
         <v>100</v>
       </c>
-      <c r="C48">
-        <v>2</v>
+      <c r="C48" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1218,8 +1227,8 @@
       <c r="B49" t="s">
         <v>100</v>
       </c>
-      <c r="C49">
-        <v>2</v>
+      <c r="C49" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1229,8 +1238,8 @@
       <c r="B50" t="s">
         <v>101</v>
       </c>
-      <c r="C50">
-        <v>3</v>
+      <c r="C50" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1240,8 +1249,8 @@
       <c r="B51" t="s">
         <v>101</v>
       </c>
-      <c r="C51">
-        <v>3</v>
+      <c r="C51" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1251,8 +1260,8 @@
       <c r="B52" t="s">
         <v>101</v>
       </c>
-      <c r="C52">
-        <v>3</v>
+      <c r="C52" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1262,8 +1271,8 @@
       <c r="B53" t="s">
         <v>101</v>
       </c>
-      <c r="C53">
-        <v>3</v>
+      <c r="C53" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1273,8 +1282,8 @@
       <c r="B54" t="s">
         <v>101</v>
       </c>
-      <c r="C54">
-        <v>3</v>
+      <c r="C54" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1284,8 +1293,8 @@
       <c r="B55" t="s">
         <v>101</v>
       </c>
-      <c r="C55">
-        <v>3</v>
+      <c r="C55" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1295,8 +1304,8 @@
       <c r="B56" t="s">
         <v>101</v>
       </c>
-      <c r="C56">
-        <v>3</v>
+      <c r="C56" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1306,8 +1315,8 @@
       <c r="B57" t="s">
         <v>101</v>
       </c>
-      <c r="C57">
-        <v>3</v>
+      <c r="C57" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1317,8 +1326,8 @@
       <c r="B58" t="s">
         <v>101</v>
       </c>
-      <c r="C58">
-        <v>3</v>
+      <c r="C58" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1328,8 +1337,8 @@
       <c r="B59" t="s">
         <v>101</v>
       </c>
-      <c r="C59">
-        <v>3</v>
+      <c r="C59" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1339,8 +1348,8 @@
       <c r="B60" t="s">
         <v>101</v>
       </c>
-      <c r="C60">
-        <v>3</v>
+      <c r="C60" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1350,8 +1359,8 @@
       <c r="B61" t="s">
         <v>101</v>
       </c>
-      <c r="C61">
-        <v>3</v>
+      <c r="C61" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1361,8 +1370,8 @@
       <c r="B62" t="s">
         <v>101</v>
       </c>
-      <c r="C62">
-        <v>3</v>
+      <c r="C62" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1372,8 +1381,8 @@
       <c r="B63" t="s">
         <v>101</v>
       </c>
-      <c r="C63">
-        <v>3</v>
+      <c r="C63" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1383,8 +1392,8 @@
       <c r="B64" t="s">
         <v>101</v>
       </c>
-      <c r="C64">
-        <v>3</v>
+      <c r="C64" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1394,8 +1403,8 @@
       <c r="B65" t="s">
         <v>101</v>
       </c>
-      <c r="C65">
-        <v>3</v>
+      <c r="C65" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1405,8 +1414,8 @@
       <c r="B66" t="s">
         <v>101</v>
       </c>
-      <c r="C66">
-        <v>3</v>
+      <c r="C66" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1416,8 +1425,8 @@
       <c r="B67" t="s">
         <v>101</v>
       </c>
-      <c r="C67">
-        <v>3</v>
+      <c r="C67" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1427,8 +1436,8 @@
       <c r="B68" t="s">
         <v>101</v>
       </c>
-      <c r="C68">
-        <v>3</v>
+      <c r="C68" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1438,8 +1447,8 @@
       <c r="B69" t="s">
         <v>101</v>
       </c>
-      <c r="C69">
-        <v>3</v>
+      <c r="C69" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1449,8 +1458,8 @@
       <c r="B70" t="s">
         <v>101</v>
       </c>
-      <c r="C70">
-        <v>3</v>
+      <c r="C70" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1460,8 +1469,8 @@
       <c r="B71" t="s">
         <v>101</v>
       </c>
-      <c r="C71">
-        <v>3</v>
+      <c r="C71" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1471,8 +1480,8 @@
       <c r="B72" t="s">
         <v>101</v>
       </c>
-      <c r="C72">
-        <v>3</v>
+      <c r="C72" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1482,8 +1491,8 @@
       <c r="B73" t="s">
         <v>101</v>
       </c>
-      <c r="C73">
-        <v>3</v>
+      <c r="C73" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1493,8 +1502,8 @@
       <c r="B74" t="s">
         <v>101</v>
       </c>
-      <c r="C74">
-        <v>3</v>
+      <c r="C74" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1504,8 +1513,8 @@
       <c r="B75" t="s">
         <v>101</v>
       </c>
-      <c r="C75">
-        <v>3</v>
+      <c r="C75" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1515,8 +1524,8 @@
       <c r="B76" t="s">
         <v>101</v>
       </c>
-      <c r="C76">
-        <v>3</v>
+      <c r="C76" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1526,8 +1535,8 @@
       <c r="B77" t="s">
         <v>101</v>
       </c>
-      <c r="C77">
-        <v>3</v>
+      <c r="C77" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1537,8 +1546,8 @@
       <c r="B78" t="s">
         <v>101</v>
       </c>
-      <c r="C78">
-        <v>3</v>
+      <c r="C78" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1548,8 +1557,8 @@
       <c r="B79" t="s">
         <v>101</v>
       </c>
-      <c r="C79">
-        <v>3</v>
+      <c r="C79" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1559,8 +1568,8 @@
       <c r="B80" t="s">
         <v>101</v>
       </c>
-      <c r="C80">
-        <v>3</v>
+      <c r="C80" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1570,8 +1579,8 @@
       <c r="B81" t="s">
         <v>101</v>
       </c>
-      <c r="C81">
-        <v>3</v>
+      <c r="C81" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1581,8 +1590,8 @@
       <c r="B82" t="s">
         <v>101</v>
       </c>
-      <c r="C82">
-        <v>3</v>
+      <c r="C82" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1592,8 +1601,8 @@
       <c r="B83" t="s">
         <v>101</v>
       </c>
-      <c r="C83">
-        <v>3</v>
+      <c r="C83" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1603,8 +1612,8 @@
       <c r="B84" t="s">
         <v>101</v>
       </c>
-      <c r="C84">
-        <v>3</v>
+      <c r="C84" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1614,8 +1623,8 @@
       <c r="B85" t="s">
         <v>101</v>
       </c>
-      <c r="C85">
-        <v>3</v>
+      <c r="C85" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1625,8 +1634,8 @@
       <c r="B86" t="s">
         <v>101</v>
       </c>
-      <c r="C86">
-        <v>3</v>
+      <c r="C86" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1636,8 +1645,8 @@
       <c r="B87" t="s">
         <v>101</v>
       </c>
-      <c r="C87">
-        <v>3</v>
+      <c r="C87" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1647,8 +1656,8 @@
       <c r="B88" t="s">
         <v>101</v>
       </c>
-      <c r="C88">
-        <v>3</v>
+      <c r="C88" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1658,8 +1667,8 @@
       <c r="B89" t="s">
         <v>101</v>
       </c>
-      <c r="C89">
-        <v>3</v>
+      <c r="C89" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1669,8 +1678,8 @@
       <c r="B90" t="s">
         <v>101</v>
       </c>
-      <c r="C90">
-        <v>3</v>
+      <c r="C90" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1680,8 +1689,8 @@
       <c r="B91" t="s">
         <v>101</v>
       </c>
-      <c r="C91">
-        <v>3</v>
+      <c r="C91" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1691,8 +1700,8 @@
       <c r="B92" t="s">
         <v>101</v>
       </c>
-      <c r="C92">
-        <v>3</v>
+      <c r="C92" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1702,8 +1711,8 @@
       <c r="B93" t="s">
         <v>101</v>
       </c>
-      <c r="C93">
-        <v>3</v>
+      <c r="C93" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1713,8 +1722,8 @@
       <c r="B94" t="s">
         <v>101</v>
       </c>
-      <c r="C94">
-        <v>3</v>
+      <c r="C94" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1724,8 +1733,8 @@
       <c r="B95" t="s">
         <v>101</v>
       </c>
-      <c r="C95">
-        <v>3</v>
+      <c r="C95" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1735,8 +1744,8 @@
       <c r="B96" t="s">
         <v>101</v>
       </c>
-      <c r="C96">
-        <v>3</v>
+      <c r="C96" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1746,8 +1755,8 @@
       <c r="B97" t="s">
         <v>101</v>
       </c>
-      <c r="C97">
-        <v>3</v>
+      <c r="C97" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
